--- a/Kill_GRE.xlsx
+++ b/Kill_GRE.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="1449">
-  <si>
-    <t># Word</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Definition</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="1448">
+  <si>
+    <t>#Word</t>
+  </si>
+  <si>
+    <t>#Class</t>
+  </si>
+  <si>
+    <t>#Definition</t>
   </si>
   <si>
     <t>Contrite</t>
@@ -511,7 +511,7 @@
     <t>abeyance</t>
   </si>
   <si>
-    <t>abstemious</t>
+    <t>abstemious+</t>
   </si>
   <si>
     <t>acumen</t>
@@ -1009,7 +1009,7 @@
     <t>inexplicable</t>
   </si>
   <si>
-    <t>decrepitude</t>
+    <t>decrepitude+</t>
   </si>
   <si>
     <t>defame</t>
@@ -1069,7 +1069,7 @@
     <t>disregard</t>
   </si>
   <si>
-    <t>dissemble</t>
+    <t>dissemble+</t>
   </si>
   <si>
     <t>distend</t>
@@ -1216,7 +1216,7 @@
     <t>specimen</t>
   </si>
   <si>
-    <t>elucidate</t>
+    <t>elucidate+</t>
   </si>
   <si>
     <t>demarcate</t>
@@ -1267,7 +1267,7 @@
     <t>fealty</t>
   </si>
   <si>
-    <t>fester</t>
+    <t>fester++</t>
   </si>
   <si>
     <t>fickle</t>
@@ -1297,7 +1297,7 @@
     <t>impediment</t>
   </si>
   <si>
-    <t>malady</t>
+    <t>malady+</t>
   </si>
   <si>
     <t>recede</t>
@@ -1555,7 +1555,7 @@
     <t>nettle</t>
   </si>
   <si>
-    <t>nimble</t>
+    <t>nimble+</t>
   </si>
   <si>
     <t>nondescript</t>
@@ -1570,7 +1570,7 @@
     <t>obfuscate</t>
   </si>
   <si>
-    <t>objectionable</t>
+    <t>objectionable+</t>
   </si>
   <si>
     <t>obscure</t>
@@ -1582,7 +1582,7 @@
     <t>obtrusive</t>
   </si>
   <si>
-    <t>occlude</t>
+    <t>occlude+</t>
   </si>
   <si>
     <t>ominous</t>
@@ -1597,7 +1597,7 @@
     <t>onset</t>
   </si>
   <si>
-    <t>oppressive</t>
+    <t>oppressive+</t>
   </si>
   <si>
     <t>opprobrium</t>
@@ -1624,7 +1624,7 @@
     <t>pacific</t>
   </si>
   <si>
-    <t>palliate</t>
+    <t>palliate+</t>
   </si>
   <si>
     <t>partisan</t>
@@ -1645,10 +1645,10 @@
     <t>peculiar</t>
   </si>
   <si>
-    <t>pedigree</t>
-  </si>
-  <si>
-    <t>penchant</t>
+    <t>pedigree+</t>
+  </si>
+  <si>
+    <t>penchant+</t>
   </si>
   <si>
     <t>peripheral</t>
@@ -1681,10 +1681,10 @@
     <t>precipitate</t>
   </si>
   <si>
-    <t>predilection</t>
-  </si>
-  <si>
-    <t>preside</t>
+    <t>predilection+</t>
+  </si>
+  <si>
+    <t>preside+</t>
   </si>
   <si>
     <t>pressing</t>
@@ -1720,7 +1720,7 @@
     <t>proponent</t>
   </si>
   <si>
-    <t>protract</t>
+    <t>protract+</t>
   </si>
   <si>
     <t>provincial</t>
@@ -1744,7 +1744,7 @@
     <t>quaff</t>
   </si>
   <si>
-    <t>quash</t>
+    <t>quash+</t>
   </si>
   <si>
     <t>quirky</t>
@@ -1756,13 +1756,13 @@
     <t>rant</t>
   </si>
   <si>
-    <t>rapacious</t>
+    <t>rapacious+</t>
   </si>
   <si>
     <t>rapprochement</t>
   </si>
   <si>
-    <t>recalcitrant</t>
+    <t>recalcitrant+</t>
   </si>
   <si>
     <t>recoil</t>
@@ -1789,7 +1789,7 @@
     <t>riddle</t>
   </si>
   <si>
-    <t>row</t>
+    <t>row+</t>
   </si>
   <si>
     <t>sacrosanct</t>
@@ -2122,13 +2122,13 @@
     <t>slumberous</t>
   </si>
   <si>
-    <t xml:space="preserve">arousal </t>
+    <t>arousal</t>
   </si>
   <si>
     <t>maudlin</t>
   </si>
   <si>
-    <t xml:space="preserve">helter-skelter </t>
+    <t>helter-skelter</t>
   </si>
   <si>
     <t>indecorous</t>
@@ -2212,6 +2212,9 @@
     <t>tribute</t>
   </si>
   <si>
+    <t>rancor</t>
+  </si>
+  <si>
     <t>adj.</t>
   </si>
   <si>
@@ -2257,9 +2260,6 @@
     <t>a</t>
   </si>
   <si>
-    <t xml:space="preserve"> adj</t>
-  </si>
-  <si>
     <t>conj</t>
   </si>
   <si>
@@ -3226,7 +3226,7 @@
     <t>無法說明的</t>
   </si>
   <si>
-    <t>衰老    +</t>
+    <t>衰老</t>
   </si>
   <si>
     <t>使轉向</t>
@@ -3502,7 +3502,7 @@
     <t>妨礙，阻礙</t>
   </si>
   <si>
-    <t>病，疾病，社會腐敗  +</t>
+    <t>病，疾病，社會腐敗</t>
   </si>
   <si>
     <t>後退</t>
@@ -3907,7 +3907,7 @@
     <t>痛飲</t>
   </si>
   <si>
-    <t>平息，否決  +</t>
+    <t>平息，否決</t>
   </si>
   <si>
     <t>開玩笑</t>
@@ -3946,9 +3946,6 @@
     <t>謎</t>
   </si>
   <si>
-    <t>爭吵  +</t>
-  </si>
-  <si>
     <t>神聖不可改變的</t>
   </si>
   <si>
@@ -3961,9 +3958,6 @@
     <t>開創性的</t>
   </si>
   <si>
-    <t>衰老</t>
-  </si>
-  <si>
     <t>假東西，贗品</t>
   </si>
   <si>
@@ -4361,6 +4355,9 @@
   </si>
   <si>
     <t>進貢，敬意，尊崇</t>
+  </si>
+  <si>
+    <t>敵意，憤恨</t>
   </si>
 </sst>
 </file>
@@ -4428,7 +4425,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1937FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -4718,7 +4736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D739"/>
+  <dimension ref="A1:D740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4743,7 +4761,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D2" t="s">
         <v>750</v>
@@ -4757,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D3" t="s">
         <v>751</v>
@@ -4771,7 +4789,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D4" t="s">
         <v>752</v>
@@ -4785,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D5" t="s">
         <v>753</v>
@@ -4799,7 +4817,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D6" t="s">
         <v>754</v>
@@ -4813,7 +4831,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D7" t="s">
         <v>755</v>
@@ -4827,7 +4845,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D8" t="s">
         <v>756</v>
@@ -4841,7 +4859,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D9" t="s">
         <v>757</v>
@@ -4855,7 +4873,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D10" t="s">
         <v>758</v>
@@ -4869,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D11" t="s">
         <v>759</v>
@@ -4883,7 +4901,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D12" t="s">
         <v>760</v>
@@ -4897,7 +4915,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D13" t="s">
         <v>761</v>
@@ -4911,7 +4929,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D14" t="s">
         <v>762</v>
@@ -4925,7 +4943,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D15" t="s">
         <v>763</v>
@@ -4939,7 +4957,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D16" t="s">
         <v>764</v>
@@ -4953,7 +4971,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D17" t="s">
         <v>765</v>
@@ -4967,7 +4985,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D18" t="s">
         <v>766</v>
@@ -4981,7 +4999,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D19" t="s">
         <v>767</v>
@@ -4995,7 +5013,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D20" t="s">
         <v>768</v>
@@ -5009,7 +5027,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D21" t="s">
         <v>769</v>
@@ -5023,7 +5041,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D22" t="s">
         <v>770</v>
@@ -5037,7 +5055,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D23" t="s">
         <v>771</v>
@@ -5051,7 +5069,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D24" t="s">
         <v>772</v>
@@ -5065,7 +5083,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D25" t="s">
         <v>773</v>
@@ -5079,7 +5097,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D26" t="s">
         <v>774</v>
@@ -5093,7 +5111,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D27" t="s">
         <v>775</v>
@@ -5107,7 +5125,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D28" t="s">
         <v>776</v>
@@ -5121,7 +5139,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D29" t="s">
         <v>777</v>
@@ -5135,7 +5153,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D30" t="s">
         <v>778</v>
@@ -5149,7 +5167,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D31" t="s">
         <v>779</v>
@@ -5163,7 +5181,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D32" t="s">
         <v>780</v>
@@ -5177,7 +5195,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D33" t="s">
         <v>781</v>
@@ -5191,7 +5209,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D34" t="s">
         <v>782</v>
@@ -5205,7 +5223,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D35" t="s">
         <v>783</v>
@@ -5219,7 +5237,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D36" t="s">
         <v>784</v>
@@ -5233,7 +5251,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D37" t="s">
         <v>785</v>
@@ -5247,7 +5265,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D38" t="s">
         <v>786</v>
@@ -5261,7 +5279,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D39" t="s">
         <v>787</v>
@@ -5275,7 +5293,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D40" t="s">
         <v>787</v>
@@ -5289,7 +5307,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D41" t="s">
         <v>788</v>
@@ -5303,7 +5321,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D42" t="s">
         <v>789</v>
@@ -5317,7 +5335,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D43" t="s">
         <v>790</v>
@@ -5331,7 +5349,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D44" t="s">
         <v>768</v>
@@ -5345,7 +5363,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D45" t="s">
         <v>791</v>
@@ -5359,7 +5377,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D46" t="s">
         <v>792</v>
@@ -5373,7 +5391,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D47" t="s">
         <v>793</v>
@@ -5387,7 +5405,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D48" t="s">
         <v>794</v>
@@ -5401,7 +5419,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D49" t="s">
         <v>795</v>
@@ -5415,7 +5433,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D50" t="s">
         <v>796</v>
@@ -5429,7 +5447,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D51" t="s">
         <v>797</v>
@@ -5443,7 +5461,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D52" t="s">
         <v>798</v>
@@ -5457,7 +5475,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D53" t="s">
         <v>799</v>
@@ -5471,7 +5489,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D54" t="s">
         <v>800</v>
@@ -5485,7 +5503,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D55" t="s">
         <v>801</v>
@@ -5499,7 +5517,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D56" t="s">
         <v>802</v>
@@ -5513,7 +5531,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D57" t="s">
         <v>803</v>
@@ -5527,7 +5545,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D58" t="s">
         <v>804</v>
@@ -5541,7 +5559,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D59" t="s">
         <v>805</v>
@@ -5555,7 +5573,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D60" t="s">
         <v>806</v>
@@ -5569,7 +5587,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D61" t="s">
         <v>807</v>
@@ -5583,7 +5601,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D62" t="s">
         <v>808</v>
@@ -5597,7 +5615,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D63" t="s">
         <v>809</v>
@@ -5611,7 +5629,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D64" t="s">
         <v>810</v>
@@ -5625,7 +5643,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D65" t="s">
         <v>811</v>
@@ -5639,7 +5657,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D66" t="s">
         <v>812</v>
@@ -5653,7 +5671,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D67" t="s">
         <v>813</v>
@@ -5667,7 +5685,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D68" t="s">
         <v>814</v>
@@ -5681,7 +5699,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D69" t="s">
         <v>815</v>
@@ -5695,7 +5713,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D70" t="s">
         <v>816</v>
@@ -5709,7 +5727,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D71" t="s">
         <v>817</v>
@@ -5723,7 +5741,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D72" t="s">
         <v>818</v>
@@ -5737,7 +5755,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D73" t="s">
         <v>819</v>
@@ -5751,7 +5769,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D74" t="s">
         <v>820</v>
@@ -5765,7 +5783,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D75" t="s">
         <v>821</v>
@@ -5779,7 +5797,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D76" t="s">
         <v>822</v>
@@ -5793,7 +5811,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D77" t="s">
         <v>823</v>
@@ -5807,7 +5825,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D78" t="s">
         <v>824</v>
@@ -5821,7 +5839,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D79" t="s">
         <v>825</v>
@@ -5835,7 +5853,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D80" t="s">
         <v>826</v>
@@ -5849,7 +5867,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D81" t="s">
         <v>827</v>
@@ -5863,7 +5881,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D82" t="s">
         <v>828</v>
@@ -5877,7 +5895,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D83" t="s">
         <v>829</v>
@@ -5891,7 +5909,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D84" t="s">
         <v>830</v>
@@ -5905,7 +5923,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D85" t="s">
         <v>831</v>
@@ -5919,7 +5937,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D86" t="s">
         <v>832</v>
@@ -5933,7 +5951,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D87" t="s">
         <v>833</v>
@@ -5947,7 +5965,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D88" t="s">
         <v>834</v>
@@ -5961,7 +5979,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D89" t="s">
         <v>835</v>
@@ -5975,7 +5993,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D90" t="s">
         <v>836</v>
@@ -5989,7 +6007,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D91" t="s">
         <v>837</v>
@@ -6003,7 +6021,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D92" t="s">
         <v>838</v>
@@ -6017,7 +6035,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D93" t="s">
         <v>839</v>
@@ -6031,7 +6049,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D94" t="s">
         <v>840</v>
@@ -6045,7 +6063,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D95" t="s">
         <v>841</v>
@@ -6059,7 +6077,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D96" t="s">
         <v>842</v>
@@ -6073,7 +6091,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D97" t="s">
         <v>843</v>
@@ -6087,7 +6105,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D98" t="s">
         <v>844</v>
@@ -6101,7 +6119,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D99" t="s">
         <v>845</v>
@@ -6115,7 +6133,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D100" t="s">
         <v>846</v>
@@ -6129,7 +6147,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D101" t="s">
         <v>847</v>
@@ -6143,7 +6161,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D102" t="s">
         <v>848</v>
@@ -6157,7 +6175,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D103" t="s">
         <v>849</v>
@@ -6171,7 +6189,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D104" t="s">
         <v>850</v>
@@ -6185,7 +6203,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D105" t="s">
         <v>851</v>
@@ -6199,7 +6217,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D106" t="s">
         <v>852</v>
@@ -6213,7 +6231,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D107" t="s">
         <v>853</v>
@@ -6227,7 +6245,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D108" t="s">
         <v>854</v>
@@ -6241,7 +6259,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D109" t="s">
         <v>855</v>
@@ -6255,7 +6273,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D110" t="s">
         <v>856</v>
@@ -6269,7 +6287,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D111" t="s">
         <v>857</v>
@@ -6283,7 +6301,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D112" t="s">
         <v>858</v>
@@ -6297,7 +6315,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D113" t="s">
         <v>859</v>
@@ -6311,7 +6329,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D114" t="s">
         <v>860</v>
@@ -6325,7 +6343,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D115" t="s">
         <v>861</v>
@@ -6339,7 +6357,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D116" t="s">
         <v>862</v>
@@ -6353,7 +6371,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D117" t="s">
         <v>863</v>
@@ -6367,7 +6385,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D118" t="s">
         <v>864</v>
@@ -6381,7 +6399,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D119" t="s">
         <v>865</v>
@@ -6395,7 +6413,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D120" t="s">
         <v>866</v>
@@ -6409,7 +6427,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D121" t="s">
         <v>867</v>
@@ -6423,7 +6441,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D122" t="s">
         <v>868</v>
@@ -6437,7 +6455,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D123" t="s">
         <v>869</v>
@@ -6451,7 +6469,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D124" t="s">
         <v>870</v>
@@ -6465,7 +6483,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D125" t="s">
         <v>871</v>
@@ -6479,7 +6497,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D126" t="s">
         <v>872</v>
@@ -6493,7 +6511,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D127" t="s">
         <v>873</v>
@@ -6507,7 +6525,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D128" t="s">
         <v>874</v>
@@ -6521,7 +6539,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D129" t="s">
         <v>778</v>
@@ -6535,7 +6553,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D130" t="s">
         <v>875</v>
@@ -6549,7 +6567,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D131" t="s">
         <v>876</v>
@@ -6563,7 +6581,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D132" t="s">
         <v>877</v>
@@ -6577,7 +6595,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D133" t="s">
         <v>878</v>
@@ -6591,7 +6609,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D134" t="s">
         <v>879</v>
@@ -6605,7 +6623,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D135" t="s">
         <v>880</v>
@@ -6619,7 +6637,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D136" t="s">
         <v>881</v>
@@ -6633,7 +6651,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D137" t="s">
         <v>882</v>
@@ -6647,7 +6665,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D138" t="s">
         <v>883</v>
@@ -6661,7 +6679,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D139" t="s">
         <v>884</v>
@@ -6675,7 +6693,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D140" t="s">
         <v>885</v>
@@ -6689,7 +6707,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D141" t="s">
         <v>886</v>
@@ -6703,7 +6721,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D142" t="s">
         <v>887</v>
@@ -6717,7 +6735,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D143" t="s">
         <v>888</v>
@@ -6731,7 +6749,7 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D144" t="s">
         <v>889</v>
@@ -6745,7 +6763,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D145" t="s">
         <v>890</v>
@@ -6759,7 +6777,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D146" t="s">
         <v>891</v>
@@ -6773,7 +6791,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D147" t="s">
         <v>892</v>
@@ -6787,7 +6805,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D148" t="s">
         <v>893</v>
@@ -6801,7 +6819,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D149" t="s">
         <v>894</v>
@@ -6815,7 +6833,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D150" t="s">
         <v>895</v>
@@ -6829,7 +6847,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D151" t="s">
         <v>896</v>
@@ -6843,7 +6861,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D152" t="s">
         <v>897</v>
@@ -6857,7 +6875,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D153" t="s">
         <v>898</v>
@@ -6871,7 +6889,7 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D154" t="s">
         <v>899</v>
@@ -6885,7 +6903,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D155" t="s">
         <v>888</v>
@@ -6899,7 +6917,7 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D156" t="s">
         <v>900</v>
@@ -6913,7 +6931,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D157" t="s">
         <v>901</v>
@@ -6927,7 +6945,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D158" t="s">
         <v>902</v>
@@ -6941,7 +6959,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D159" t="s">
         <v>903</v>
@@ -6955,7 +6973,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D160" t="s">
         <v>904</v>
@@ -6969,7 +6987,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D161" t="s">
         <v>905</v>
@@ -6983,7 +7001,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D162" t="s">
         <v>906</v>
@@ -6997,7 +7015,7 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D163" t="s">
         <v>907</v>
@@ -7011,7 +7029,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D164" t="s">
         <v>908</v>
@@ -7025,7 +7043,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D165" t="s">
         <v>909</v>
@@ -7039,7 +7057,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D166" t="s">
         <v>910</v>
@@ -7053,7 +7071,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D167" t="s">
         <v>911</v>
@@ -7067,7 +7085,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D168" t="s">
         <v>912</v>
@@ -7081,7 +7099,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D169" t="s">
         <v>913</v>
@@ -7095,7 +7113,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D170" t="s">
         <v>914</v>
@@ -7109,7 +7127,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D171" t="s">
         <v>915</v>
@@ -7123,7 +7141,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D172" t="s">
         <v>916</v>
@@ -7137,7 +7155,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D173" t="s">
         <v>917</v>
@@ -7151,7 +7169,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D174" t="s">
         <v>918</v>
@@ -7165,7 +7183,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D175" t="s">
         <v>919</v>
@@ -7179,7 +7197,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D176" t="s">
         <v>920</v>
@@ -7193,7 +7211,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D177" t="s">
         <v>921</v>
@@ -7207,7 +7225,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D178" t="s">
         <v>922</v>
@@ -7221,7 +7239,7 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D179" t="s">
         <v>923</v>
@@ -7235,7 +7253,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D180" t="s">
         <v>924</v>
@@ -7249,7 +7267,7 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D181" t="s">
         <v>925</v>
@@ -7263,7 +7281,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D182" t="s">
         <v>926</v>
@@ -7277,7 +7295,7 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D183" t="s">
         <v>927</v>
@@ -7291,7 +7309,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D184" t="s">
         <v>928</v>
@@ -7305,7 +7323,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D185" t="s">
         <v>929</v>
@@ -7319,7 +7337,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D186" t="s">
         <v>930</v>
@@ -7333,7 +7351,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D187" t="s">
         <v>931</v>
@@ -7347,7 +7365,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D188" t="s">
         <v>894</v>
@@ -7361,7 +7379,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D189" t="s">
         <v>932</v>
@@ -7375,7 +7393,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D190" t="s">
         <v>933</v>
@@ -7389,7 +7407,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D191" t="s">
         <v>934</v>
@@ -7403,7 +7421,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D192" t="s">
         <v>935</v>
@@ -7417,7 +7435,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D193" t="s">
         <v>936</v>
@@ -7431,7 +7449,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D194" t="s">
         <v>937</v>
@@ -7445,7 +7463,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D195" t="s">
         <v>938</v>
@@ -7459,7 +7477,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D196" t="s">
         <v>939</v>
@@ -7473,7 +7491,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D197" t="s">
         <v>940</v>
@@ -7487,7 +7505,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D198" t="s">
         <v>941</v>
@@ -7501,7 +7519,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D199" t="s">
         <v>942</v>
@@ -7515,7 +7533,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D200" t="s">
         <v>943</v>
@@ -7529,7 +7547,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D201" t="s">
         <v>944</v>
@@ -7543,7 +7561,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D202" t="s">
         <v>945</v>
@@ -7557,7 +7575,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D203" t="s">
         <v>922</v>
@@ -7571,7 +7589,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D204" t="s">
         <v>946</v>
@@ -7585,7 +7603,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D205" t="s">
         <v>947</v>
@@ -7599,7 +7617,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D206" t="s">
         <v>948</v>
@@ -7613,7 +7631,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D207" t="s">
         <v>949</v>
@@ -7627,7 +7645,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D208" t="s">
         <v>950</v>
@@ -7641,7 +7659,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D209" t="s">
         <v>951</v>
@@ -7655,7 +7673,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D210" t="s">
         <v>952</v>
@@ -7669,7 +7687,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D211" t="s">
         <v>953</v>
@@ -7683,7 +7701,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D212" t="s">
         <v>954</v>
@@ -7697,7 +7715,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D213" t="s">
         <v>803</v>
@@ -7711,7 +7729,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D214" t="s">
         <v>955</v>
@@ -7725,7 +7743,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D215" t="s">
         <v>956</v>
@@ -7739,7 +7757,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D216" t="s">
         <v>957</v>
@@ -7753,7 +7771,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D217" t="s">
         <v>958</v>
@@ -7767,7 +7785,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D218" t="s">
         <v>959</v>
@@ -7781,7 +7799,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D219" t="s">
         <v>960</v>
@@ -7795,7 +7813,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D220" t="s">
         <v>961</v>
@@ -7809,7 +7827,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D221" t="s">
         <v>962</v>
@@ -7823,7 +7841,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D222" t="s">
         <v>963</v>
@@ -7837,7 +7855,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D223" t="s">
         <v>964</v>
@@ -7851,7 +7869,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D224" t="s">
         <v>965</v>
@@ -7865,7 +7883,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D225" t="s">
         <v>966</v>
@@ -7879,7 +7897,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D226" t="s">
         <v>967</v>
@@ -7893,7 +7911,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D227" t="s">
         <v>968</v>
@@ -7907,7 +7925,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D228" t="s">
         <v>969</v>
@@ -7921,7 +7939,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D229" t="s">
         <v>970</v>
@@ -7935,7 +7953,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D230" t="s">
         <v>971</v>
@@ -7949,7 +7967,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D231" t="s">
         <v>972</v>
@@ -7963,7 +7981,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D232" t="s">
         <v>973</v>
@@ -7977,7 +7995,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D233" t="s">
         <v>974</v>
@@ -7991,7 +8009,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D234" t="s">
         <v>975</v>
@@ -8005,7 +8023,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D235" t="s">
         <v>976</v>
@@ -8019,7 +8037,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D236" t="s">
         <v>977</v>
@@ -8033,7 +8051,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D237" t="s">
         <v>978</v>
@@ -8047,7 +8065,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D238" t="s">
         <v>979</v>
@@ -8061,7 +8079,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D239" t="s">
         <v>980</v>
@@ -8075,7 +8093,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D240" t="s">
         <v>981</v>
@@ -8089,7 +8107,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D241" t="s">
         <v>982</v>
@@ -8103,7 +8121,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D242" t="s">
         <v>983</v>
@@ -8117,7 +8135,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D243" t="s">
         <v>984</v>
@@ -8131,7 +8149,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D244" t="s">
         <v>985</v>
@@ -8145,7 +8163,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D245" t="s">
         <v>986</v>
@@ -8159,7 +8177,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D246" t="s">
         <v>987</v>
@@ -8173,7 +8191,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D247" t="s">
         <v>988</v>
@@ -8187,7 +8205,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D248" t="s">
         <v>989</v>
@@ -8201,7 +8219,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D249" t="s">
         <v>990</v>
@@ -8215,7 +8233,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D250" t="s">
         <v>991</v>
@@ -8229,7 +8247,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D251" t="s">
         <v>992</v>
@@ -8243,7 +8261,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D252" t="s">
         <v>993</v>
@@ -8257,7 +8275,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D253" t="s">
         <v>994</v>
@@ -8271,7 +8289,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D254" t="s">
         <v>995</v>
@@ -8285,7 +8303,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D255" t="s">
         <v>996</v>
@@ -8299,7 +8317,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D256" t="s">
         <v>997</v>
@@ -8313,7 +8331,7 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D257" t="s">
         <v>998</v>
@@ -8327,7 +8345,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D258" t="s">
         <v>999</v>
@@ -8341,7 +8359,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D259" t="s">
         <v>1000</v>
@@ -8355,7 +8373,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D260" t="s">
         <v>1001</v>
@@ -8369,7 +8387,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D261" t="s">
         <v>1002</v>
@@ -8383,7 +8401,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D262" t="s">
         <v>1003</v>
@@ -8397,7 +8415,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D263" t="s">
         <v>1004</v>
@@ -8411,7 +8429,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D264" t="s">
         <v>960</v>
@@ -8425,7 +8443,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D265" t="s">
         <v>1005</v>
@@ -8439,7 +8457,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D266" t="s">
         <v>1006</v>
@@ -8453,7 +8471,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D267" t="s">
         <v>1007</v>
@@ -8467,7 +8485,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D268" t="s">
         <v>1008</v>
@@ -8481,7 +8499,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D269" t="s">
         <v>1009</v>
@@ -8495,7 +8513,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D270" t="s">
         <v>1010</v>
@@ -8509,7 +8527,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D271" t="s">
         <v>1011</v>
@@ -8523,7 +8541,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D272" t="s">
         <v>1012</v>
@@ -8537,7 +8555,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D273" t="s">
         <v>1013</v>
@@ -8551,7 +8569,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D274" t="s">
         <v>1014</v>
@@ -8565,7 +8583,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D275" t="s">
         <v>1015</v>
@@ -8579,7 +8597,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D276" t="s">
         <v>1016</v>
@@ -8593,7 +8611,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D277" t="s">
         <v>1017</v>
@@ -8607,7 +8625,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D278" t="s">
         <v>1018</v>
@@ -8621,7 +8639,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D279" t="s">
         <v>1019</v>
@@ -8635,7 +8653,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D280" t="s">
         <v>1020</v>
@@ -8649,7 +8667,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D281" t="s">
         <v>1021</v>
@@ -8663,7 +8681,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D282" t="s">
         <v>1022</v>
@@ -8677,7 +8695,7 @@
         <v>233</v>
       </c>
       <c r="C283" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D283" t="s">
         <v>1023</v>
@@ -8691,7 +8709,7 @@
         <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D284" t="s">
         <v>1024</v>
@@ -8705,7 +8723,7 @@
         <v>285</v>
       </c>
       <c r="C285" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D285" t="s">
         <v>1025</v>
@@ -8719,7 +8737,7 @@
         <v>286</v>
       </c>
       <c r="C286" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D286" t="s">
         <v>1026</v>
@@ -8733,7 +8751,7 @@
         <v>287</v>
       </c>
       <c r="C287" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D287" t="s">
         <v>1027</v>
@@ -8747,7 +8765,7 @@
         <v>288</v>
       </c>
       <c r="C288" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D288" t="s">
         <v>1028</v>
@@ -8761,7 +8779,7 @@
         <v>289</v>
       </c>
       <c r="C289" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D289" t="s">
         <v>1029</v>
@@ -8775,7 +8793,7 @@
         <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D290" t="s">
         <v>1030</v>
@@ -8789,7 +8807,7 @@
         <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D291" t="s">
         <v>1031</v>
@@ -8803,7 +8821,7 @@
         <v>292</v>
       </c>
       <c r="C292" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D292" t="s">
         <v>1032</v>
@@ -8817,7 +8835,7 @@
         <v>293</v>
       </c>
       <c r="C293" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D293" t="s">
         <v>1033</v>
@@ -8831,7 +8849,7 @@
         <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D294" t="s">
         <v>1034</v>
@@ -8845,7 +8863,7 @@
         <v>295</v>
       </c>
       <c r="C295" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D295" t="s">
         <v>1035</v>
@@ -8859,7 +8877,7 @@
         <v>296</v>
       </c>
       <c r="C296" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D296" t="s">
         <v>1036</v>
@@ -8873,7 +8891,7 @@
         <v>297</v>
       </c>
       <c r="C297" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D297" t="s">
         <v>1037</v>
@@ -8887,7 +8905,7 @@
         <v>298</v>
       </c>
       <c r="C298" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D298" t="s">
         <v>1038</v>
@@ -8901,7 +8919,7 @@
         <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D299" t="s">
         <v>1039</v>
@@ -8915,7 +8933,7 @@
         <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D300" t="s">
         <v>1040</v>
@@ -8929,7 +8947,7 @@
         <v>275</v>
       </c>
       <c r="C301" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D301" t="s">
         <v>1014</v>
@@ -8943,7 +8961,7 @@
         <v>301</v>
       </c>
       <c r="C302" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D302" t="s">
         <v>1041</v>
@@ -8957,7 +8975,7 @@
         <v>302</v>
       </c>
       <c r="C303" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D303" t="s">
         <v>1042</v>
@@ -8971,7 +8989,7 @@
         <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D304" t="s">
         <v>1043</v>
@@ -8985,7 +9003,7 @@
         <v>304</v>
       </c>
       <c r="C305" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D305" t="s">
         <v>1044</v>
@@ -8999,7 +9017,7 @@
         <v>305</v>
       </c>
       <c r="C306" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D306" t="s">
         <v>1045</v>
@@ -9013,7 +9031,7 @@
         <v>306</v>
       </c>
       <c r="C307" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D307" t="s">
         <v>1046</v>
@@ -9027,7 +9045,7 @@
         <v>307</v>
       </c>
       <c r="C308" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D308" t="s">
         <v>1047</v>
@@ -9041,7 +9059,7 @@
         <v>308</v>
       </c>
       <c r="C309" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D309" t="s">
         <v>1048</v>
@@ -9055,7 +9073,7 @@
         <v>309</v>
       </c>
       <c r="C310" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D310" t="s">
         <v>1049</v>
@@ -9069,7 +9087,7 @@
         <v>310</v>
       </c>
       <c r="C311" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D311" t="s">
         <v>1050</v>
@@ -9083,7 +9101,7 @@
         <v>311</v>
       </c>
       <c r="C312" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D312" t="s">
         <v>1051</v>
@@ -9097,7 +9115,7 @@
         <v>312</v>
       </c>
       <c r="C313" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D313" t="s">
         <v>1052</v>
@@ -9111,7 +9129,7 @@
         <v>313</v>
       </c>
       <c r="C314" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D314" t="s">
         <v>1053</v>
@@ -9125,7 +9143,7 @@
         <v>314</v>
       </c>
       <c r="C315" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D315" t="s">
         <v>1054</v>
@@ -9139,7 +9157,7 @@
         <v>315</v>
       </c>
       <c r="C316" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D316" t="s">
         <v>1055</v>
@@ -9153,7 +9171,7 @@
         <v>316</v>
       </c>
       <c r="C317" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D317" t="s">
         <v>1056</v>
@@ -9167,7 +9185,7 @@
         <v>317</v>
       </c>
       <c r="C318" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D318" t="s">
         <v>1057</v>
@@ -9181,7 +9199,7 @@
         <v>318</v>
       </c>
       <c r="C319" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D319" t="s">
         <v>1057</v>
@@ -9195,7 +9213,7 @@
         <v>319</v>
       </c>
       <c r="C320" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D320" t="s">
         <v>1058</v>
@@ -9209,7 +9227,7 @@
         <v>320</v>
       </c>
       <c r="C321" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D321" t="s">
         <v>1059</v>
@@ -9223,7 +9241,7 @@
         <v>321</v>
       </c>
       <c r="C322" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D322" t="s">
         <v>1060</v>
@@ -9237,7 +9255,7 @@
         <v>322</v>
       </c>
       <c r="C323" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D323" t="s">
         <v>1061</v>
@@ -9251,7 +9269,7 @@
         <v>323</v>
       </c>
       <c r="C324" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D324" t="s">
         <v>1062</v>
@@ -9265,7 +9283,7 @@
         <v>324</v>
       </c>
       <c r="C325" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D325" t="s">
         <v>1063</v>
@@ -9279,7 +9297,7 @@
         <v>325</v>
       </c>
       <c r="C326" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D326" t="s">
         <v>1064</v>
@@ -9293,7 +9311,7 @@
         <v>326</v>
       </c>
       <c r="C327" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D327" t="s">
         <v>1065</v>
@@ -9307,7 +9325,7 @@
         <v>327</v>
       </c>
       <c r="C328" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D328" t="s">
         <v>1066</v>
@@ -9321,7 +9339,7 @@
         <v>328</v>
       </c>
       <c r="C329" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D329" t="s">
         <v>1067</v>
@@ -9335,7 +9353,7 @@
         <v>329</v>
       </c>
       <c r="C330" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D330" t="s">
         <v>1068</v>
@@ -9349,7 +9367,7 @@
         <v>330</v>
       </c>
       <c r="C331" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D331" t="s">
         <v>1069</v>
@@ -9363,7 +9381,7 @@
         <v>331</v>
       </c>
       <c r="C332" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D332" t="s">
         <v>1070</v>
@@ -9377,7 +9395,7 @@
         <v>332</v>
       </c>
       <c r="C333" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D333" t="s">
         <v>1037</v>
@@ -9391,7 +9409,7 @@
         <v>333</v>
       </c>
       <c r="C334" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D334" t="s">
         <v>1071</v>
@@ -9405,7 +9423,7 @@
         <v>334</v>
       </c>
       <c r="C335" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D335" t="s">
         <v>1072</v>
@@ -9419,7 +9437,7 @@
         <v>335</v>
       </c>
       <c r="C336" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D336" t="s">
         <v>1073</v>
@@ -9433,7 +9451,7 @@
         <v>336</v>
       </c>
       <c r="C337" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D337" t="s">
         <v>1074</v>
@@ -9447,7 +9465,7 @@
         <v>337</v>
       </c>
       <c r="C338" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D338" t="s">
         <v>1075</v>
@@ -9461,7 +9479,7 @@
         <v>338</v>
       </c>
       <c r="C339" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D339" t="s">
         <v>1076</v>
@@ -9475,7 +9493,7 @@
         <v>339</v>
       </c>
       <c r="C340" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D340" t="s">
         <v>1077</v>
@@ -9489,7 +9507,7 @@
         <v>340</v>
       </c>
       <c r="C341" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D341" t="s">
         <v>1078</v>
@@ -9503,7 +9521,7 @@
         <v>341</v>
       </c>
       <c r="C342" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D342" t="s">
         <v>1079</v>
@@ -9517,7 +9535,7 @@
         <v>342</v>
       </c>
       <c r="C343" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D343" t="s">
         <v>1054</v>
@@ -9531,7 +9549,7 @@
         <v>343</v>
       </c>
       <c r="C344" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D344" t="s">
         <v>1080</v>
@@ -9545,7 +9563,7 @@
         <v>344</v>
       </c>
       <c r="C345" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D345" t="s">
         <v>1081</v>
@@ -9559,7 +9577,7 @@
         <v>345</v>
       </c>
       <c r="C346" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D346" t="s">
         <v>1030</v>
@@ -9573,7 +9591,7 @@
         <v>346</v>
       </c>
       <c r="C347" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D347" t="s">
         <v>1082</v>
@@ -9587,7 +9605,7 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D348" t="s">
         <v>1083</v>
@@ -9601,7 +9619,7 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D349" t="s">
         <v>1084</v>
@@ -9615,7 +9633,7 @@
         <v>349</v>
       </c>
       <c r="C350" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D350" t="s">
         <v>1085</v>
@@ -9629,7 +9647,7 @@
         <v>350</v>
       </c>
       <c r="C351" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D351" t="s">
         <v>1086</v>
@@ -9643,7 +9661,7 @@
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D352" t="s">
         <v>1087</v>
@@ -9657,7 +9675,7 @@
         <v>352</v>
       </c>
       <c r="C353" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D353" t="s">
         <v>1088</v>
@@ -9671,7 +9689,7 @@
         <v>353</v>
       </c>
       <c r="C354" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D354" t="s">
         <v>1089</v>
@@ -9685,7 +9703,7 @@
         <v>354</v>
       </c>
       <c r="C355" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D355" t="s">
         <v>1090</v>
@@ -9699,7 +9717,7 @@
         <v>355</v>
       </c>
       <c r="C356" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D356" t="s">
         <v>1091</v>
@@ -9713,7 +9731,7 @@
         <v>356</v>
       </c>
       <c r="C357" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D357" t="s">
         <v>1092</v>
@@ -9727,7 +9745,7 @@
         <v>357</v>
       </c>
       <c r="C358" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D358" t="s">
         <v>1093</v>
@@ -9741,7 +9759,7 @@
         <v>358</v>
       </c>
       <c r="C359" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D359" t="s">
         <v>1094</v>
@@ -9755,7 +9773,7 @@
         <v>359</v>
       </c>
       <c r="C360" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D360" t="s">
         <v>1095</v>
@@ -9769,7 +9787,7 @@
         <v>360</v>
       </c>
       <c r="C361" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D361" t="s">
         <v>1096</v>
@@ -9783,7 +9801,7 @@
         <v>361</v>
       </c>
       <c r="C362" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D362" t="s">
         <v>1097</v>
@@ -9797,7 +9815,7 @@
         <v>362</v>
       </c>
       <c r="C363" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D363" t="s">
         <v>1098</v>
@@ -9811,7 +9829,7 @@
         <v>363</v>
       </c>
       <c r="C364" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D364" t="s">
         <v>1099</v>
@@ -9825,7 +9843,7 @@
         <v>364</v>
       </c>
       <c r="C365" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D365" t="s">
         <v>1100</v>
@@ -9839,7 +9857,7 @@
         <v>365</v>
       </c>
       <c r="C366" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D366" t="s">
         <v>1101</v>
@@ -9853,7 +9871,7 @@
         <v>366</v>
       </c>
       <c r="C367" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D367" t="s">
         <v>1102</v>
@@ -9867,7 +9885,7 @@
         <v>367</v>
       </c>
       <c r="C368" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D368" t="s">
         <v>1103</v>
@@ -9881,7 +9899,7 @@
         <v>368</v>
       </c>
       <c r="C369" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D369" t="s">
         <v>1104</v>
@@ -9895,7 +9913,7 @@
         <v>369</v>
       </c>
       <c r="C370" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D370" t="s">
         <v>1105</v>
@@ -9909,7 +9927,7 @@
         <v>370</v>
       </c>
       <c r="C371" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D371" t="s">
         <v>1106</v>
@@ -9923,7 +9941,7 @@
         <v>371</v>
       </c>
       <c r="C372" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D372" t="s">
         <v>1107</v>
@@ -9937,7 +9955,7 @@
         <v>372</v>
       </c>
       <c r="C373" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D373" t="s">
         <v>1108</v>
@@ -9951,7 +9969,7 @@
         <v>373</v>
       </c>
       <c r="C374" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D374" t="s">
         <v>1109</v>
@@ -9965,7 +9983,7 @@
         <v>374</v>
       </c>
       <c r="C375" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D375" t="s">
         <v>1110</v>
@@ -9979,7 +9997,7 @@
         <v>375</v>
       </c>
       <c r="C376" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D376" t="s">
         <v>1111</v>
@@ -9993,7 +10011,7 @@
         <v>376</v>
       </c>
       <c r="C377" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D377" t="s">
         <v>1112</v>
@@ -10007,7 +10025,7 @@
         <v>377</v>
       </c>
       <c r="C378" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D378" t="s">
         <v>1113</v>
@@ -10021,7 +10039,7 @@
         <v>378</v>
       </c>
       <c r="C379" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D379" t="s">
         <v>1114</v>
@@ -10035,7 +10053,7 @@
         <v>379</v>
       </c>
       <c r="C380" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D380" t="s">
         <v>813</v>
@@ -10049,7 +10067,7 @@
         <v>380</v>
       </c>
       <c r="C381" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D381" t="s">
         <v>1115</v>
@@ -10063,7 +10081,7 @@
         <v>381</v>
       </c>
       <c r="C382" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D382" t="s">
         <v>1116</v>
@@ -10077,7 +10095,7 @@
         <v>382</v>
       </c>
       <c r="C383" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D383" t="s">
         <v>1117</v>
@@ -10091,7 +10109,7 @@
         <v>383</v>
       </c>
       <c r="C384" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D384" t="s">
         <v>1118</v>
@@ -10105,7 +10123,7 @@
         <v>384</v>
       </c>
       <c r="C385" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D385" t="s">
         <v>1119</v>
@@ -10119,7 +10137,7 @@
         <v>385</v>
       </c>
       <c r="C386" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D386" t="s">
         <v>1120</v>
@@ -10133,7 +10151,7 @@
         <v>386</v>
       </c>
       <c r="C387" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D387" t="s">
         <v>1121</v>
@@ -10147,7 +10165,7 @@
         <v>387</v>
       </c>
       <c r="C388" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D388" t="s">
         <v>1122</v>
@@ -10161,7 +10179,7 @@
         <v>388</v>
       </c>
       <c r="C389" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D389" t="s">
         <v>1123</v>
@@ -10175,7 +10193,7 @@
         <v>389</v>
       </c>
       <c r="C390" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D390" t="s">
         <v>1124</v>
@@ -10189,7 +10207,7 @@
         <v>390</v>
       </c>
       <c r="C391" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D391" t="s">
         <v>1125</v>
@@ -10203,7 +10221,7 @@
         <v>391</v>
       </c>
       <c r="C392" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D392" t="s">
         <v>1126</v>
@@ -10217,7 +10235,7 @@
         <v>392</v>
       </c>
       <c r="C393" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D393" t="s">
         <v>1127</v>
@@ -10231,7 +10249,7 @@
         <v>393</v>
       </c>
       <c r="C394" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D394" t="s">
         <v>1128</v>
@@ -10245,7 +10263,7 @@
         <v>394</v>
       </c>
       <c r="C395" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D395" t="s">
         <v>1129</v>
@@ -10259,7 +10277,7 @@
         <v>395</v>
       </c>
       <c r="C396" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D396" t="s">
         <v>1130</v>
@@ -10273,7 +10291,7 @@
         <v>396</v>
       </c>
       <c r="C397" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D397" t="s">
         <v>1131</v>
@@ -10287,7 +10305,7 @@
         <v>397</v>
       </c>
       <c r="C398" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D398" t="s">
         <v>1132</v>
@@ -10301,7 +10319,7 @@
         <v>398</v>
       </c>
       <c r="C399" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D399" t="s">
         <v>1133</v>
@@ -10315,7 +10333,7 @@
         <v>399</v>
       </c>
       <c r="C400" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D400" t="s">
         <v>1134</v>
@@ -10329,7 +10347,7 @@
         <v>400</v>
       </c>
       <c r="C401" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D401" t="s">
         <v>1135</v>
@@ -10343,7 +10361,7 @@
         <v>401</v>
       </c>
       <c r="C402" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D402" t="s">
         <v>1136</v>
@@ -10357,7 +10375,7 @@
         <v>402</v>
       </c>
       <c r="C403" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D403" t="s">
         <v>1137</v>
@@ -10371,7 +10389,7 @@
         <v>403</v>
       </c>
       <c r="C404" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D404" t="s">
         <v>1138</v>
@@ -10385,7 +10403,7 @@
         <v>404</v>
       </c>
       <c r="C405" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D405" t="s">
         <v>1139</v>
@@ -10399,7 +10417,7 @@
         <v>405</v>
       </c>
       <c r="C406" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D406" t="s">
         <v>1140</v>
@@ -10413,7 +10431,7 @@
         <v>406</v>
       </c>
       <c r="C407" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D407" t="s">
         <v>1141</v>
@@ -10427,7 +10445,7 @@
         <v>407</v>
       </c>
       <c r="C408" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D408" t="s">
         <v>1142</v>
@@ -10441,7 +10459,7 @@
         <v>408</v>
       </c>
       <c r="C409" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D409" t="s">
         <v>1143</v>
@@ -10455,7 +10473,7 @@
         <v>409</v>
       </c>
       <c r="C410" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D410" t="s">
         <v>1144</v>
@@ -10469,7 +10487,7 @@
         <v>410</v>
       </c>
       <c r="C411" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D411" t="s">
         <v>1145</v>
@@ -10483,7 +10501,7 @@
         <v>411</v>
       </c>
       <c r="C412" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D412" t="s">
         <v>1146</v>
@@ -10497,7 +10515,7 @@
         <v>412</v>
       </c>
       <c r="C413" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D413" t="s">
         <v>1147</v>
@@ -10511,7 +10529,7 @@
         <v>413</v>
       </c>
       <c r="C414" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D414" t="s">
         <v>1148</v>
@@ -10525,7 +10543,7 @@
         <v>414</v>
       </c>
       <c r="C415" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D415" t="s">
         <v>1149</v>
@@ -10539,7 +10557,7 @@
         <v>415</v>
       </c>
       <c r="C416" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D416" t="s">
         <v>1150</v>
@@ -10553,7 +10571,7 @@
         <v>416</v>
       </c>
       <c r="C417" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D417" t="s">
         <v>1151</v>
@@ -10567,7 +10585,7 @@
         <v>417</v>
       </c>
       <c r="C418" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D418" t="s">
         <v>1152</v>
@@ -10581,7 +10599,7 @@
         <v>418</v>
       </c>
       <c r="C419" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D419" t="s">
         <v>1153</v>
@@ -10595,7 +10613,7 @@
         <v>419</v>
       </c>
       <c r="C420" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D420" t="s">
         <v>1154</v>
@@ -10609,7 +10627,7 @@
         <v>420</v>
       </c>
       <c r="C421" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D421" t="s">
         <v>1155</v>
@@ -10623,7 +10641,7 @@
         <v>421</v>
       </c>
       <c r="C422" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D422" t="s">
         <v>1156</v>
@@ -10637,7 +10655,7 @@
         <v>422</v>
       </c>
       <c r="C423" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D423" t="s">
         <v>1157</v>
@@ -10651,7 +10669,7 @@
         <v>423</v>
       </c>
       <c r="C424" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D424" t="s">
         <v>1158</v>
@@ -10665,7 +10683,7 @@
         <v>424</v>
       </c>
       <c r="C425" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D425" t="s">
         <v>1159</v>
@@ -10679,7 +10697,7 @@
         <v>425</v>
       </c>
       <c r="C426" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D426" t="s">
         <v>1160</v>
@@ -10693,7 +10711,7 @@
         <v>426</v>
       </c>
       <c r="C427" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D427" t="s">
         <v>1161</v>
@@ -10707,7 +10725,7 @@
         <v>427</v>
       </c>
       <c r="C428" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D428" t="s">
         <v>1162</v>
@@ -10721,7 +10739,7 @@
         <v>428</v>
       </c>
       <c r="C429" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D429" t="s">
         <v>1163</v>
@@ -10735,7 +10753,7 @@
         <v>429</v>
       </c>
       <c r="C430" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D430" t="s">
         <v>1164</v>
@@ -10749,7 +10767,7 @@
         <v>430</v>
       </c>
       <c r="C431" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D431" t="s">
         <v>1165</v>
@@ -10763,7 +10781,7 @@
         <v>431</v>
       </c>
       <c r="C432" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D432" t="s">
         <v>1166</v>
@@ -10777,7 +10795,7 @@
         <v>432</v>
       </c>
       <c r="C433" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D433" t="s">
         <v>1167</v>
@@ -10791,7 +10809,7 @@
         <v>433</v>
       </c>
       <c r="C434" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D434" t="s">
         <v>1168</v>
@@ -10805,7 +10823,7 @@
         <v>434</v>
       </c>
       <c r="C435" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D435" t="s">
         <v>1169</v>
@@ -10819,7 +10837,7 @@
         <v>435</v>
       </c>
       <c r="C436" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D436" t="s">
         <v>1170</v>
@@ -10833,7 +10851,7 @@
         <v>436</v>
       </c>
       <c r="C437" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D437" t="s">
         <v>1171</v>
@@ -10847,7 +10865,7 @@
         <v>437</v>
       </c>
       <c r="C438" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D438" t="s">
         <v>1172</v>
@@ -10861,7 +10879,7 @@
         <v>438</v>
       </c>
       <c r="C439" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D439" t="s">
         <v>1173</v>
@@ -10875,7 +10893,7 @@
         <v>439</v>
       </c>
       <c r="C440" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D440" t="s">
         <v>1174</v>
@@ -10889,7 +10907,7 @@
         <v>440</v>
       </c>
       <c r="C441" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D441" t="s">
         <v>786</v>
@@ -10903,7 +10921,7 @@
         <v>441</v>
       </c>
       <c r="C442" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D442" t="s">
         <v>786</v>
@@ -10917,7 +10935,7 @@
         <v>442</v>
       </c>
       <c r="C443" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D443" t="s">
         <v>1175</v>
@@ -10931,7 +10949,7 @@
         <v>443</v>
       </c>
       <c r="C444" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D444" t="s">
         <v>1176</v>
@@ -10945,7 +10963,7 @@
         <v>444</v>
       </c>
       <c r="C445" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D445" t="s">
         <v>1177</v>
@@ -10959,7 +10977,7 @@
         <v>445</v>
       </c>
       <c r="C446" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D446" t="s">
         <v>1178</v>
@@ -10973,7 +10991,7 @@
         <v>446</v>
       </c>
       <c r="C447" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D447" t="s">
         <v>1179</v>
@@ -10987,7 +11005,7 @@
         <v>447</v>
       </c>
       <c r="C448" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D448" t="s">
         <v>813</v>
@@ -11001,7 +11019,7 @@
         <v>448</v>
       </c>
       <c r="C449" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D449" t="s">
         <v>1180</v>
@@ -11015,7 +11033,7 @@
         <v>449</v>
       </c>
       <c r="C450" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D450" t="s">
         <v>1181</v>
@@ -11029,7 +11047,7 @@
         <v>450</v>
       </c>
       <c r="C451" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D451" t="s">
         <v>888</v>
@@ -11043,7 +11061,7 @@
         <v>451</v>
       </c>
       <c r="C452" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D452" t="s">
         <v>1182</v>
@@ -11057,7 +11075,7 @@
         <v>452</v>
       </c>
       <c r="C453" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D453" t="s">
         <v>1183</v>
@@ -11071,7 +11089,7 @@
         <v>453</v>
       </c>
       <c r="C454" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D454" t="s">
         <v>1184</v>
@@ -11085,7 +11103,7 @@
         <v>454</v>
       </c>
       <c r="C455" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D455" t="s">
         <v>1185</v>
@@ -11099,7 +11117,7 @@
         <v>455</v>
       </c>
       <c r="C456" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D456" t="s">
         <v>1186</v>
@@ -11113,7 +11131,7 @@
         <v>456</v>
       </c>
       <c r="C457" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D457" t="s">
         <v>1187</v>
@@ -11127,7 +11145,7 @@
         <v>457</v>
       </c>
       <c r="C458" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D458" t="s">
         <v>1188</v>
@@ -11141,7 +11159,7 @@
         <v>458</v>
       </c>
       <c r="C459" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D459" t="s">
         <v>1189</v>
@@ -11155,7 +11173,7 @@
         <v>459</v>
       </c>
       <c r="C460" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D460" t="s">
         <v>1190</v>
@@ -11169,7 +11187,7 @@
         <v>460</v>
       </c>
       <c r="C461" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D461" t="s">
         <v>1191</v>
@@ -11183,7 +11201,7 @@
         <v>461</v>
       </c>
       <c r="C462" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D462" t="s">
         <v>1192</v>
@@ -11197,7 +11215,7 @@
         <v>462</v>
       </c>
       <c r="C463" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D463" t="s">
         <v>1193</v>
@@ -11211,7 +11229,7 @@
         <v>463</v>
       </c>
       <c r="C464" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D464" t="s">
         <v>1194</v>
@@ -11225,7 +11243,7 @@
         <v>464</v>
       </c>
       <c r="C465" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D465" t="s">
         <v>1195</v>
@@ -11239,7 +11257,7 @@
         <v>465</v>
       </c>
       <c r="C466" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D466" t="s">
         <v>1196</v>
@@ -11253,7 +11271,7 @@
         <v>466</v>
       </c>
       <c r="C467" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D467" t="s">
         <v>1197</v>
@@ -11267,7 +11285,7 @@
         <v>467</v>
       </c>
       <c r="C468" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D468" t="s">
         <v>1198</v>
@@ -11281,7 +11299,7 @@
         <v>468</v>
       </c>
       <c r="C469" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D469" t="s">
         <v>1199</v>
@@ -11295,7 +11313,7 @@
         <v>469</v>
       </c>
       <c r="C470" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D470" t="s">
         <v>1200</v>
@@ -11309,7 +11327,7 @@
         <v>470</v>
       </c>
       <c r="C471" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D471" t="s">
         <v>1201</v>
@@ -11323,7 +11341,7 @@
         <v>471</v>
       </c>
       <c r="C472" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D472" t="s">
         <v>1202</v>
@@ -11337,7 +11355,7 @@
         <v>472</v>
       </c>
       <c r="C473" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D473" t="s">
         <v>1203</v>
@@ -11351,7 +11369,7 @@
         <v>473</v>
       </c>
       <c r="C474" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D474" t="s">
         <v>1204</v>
@@ -11365,7 +11383,7 @@
         <v>474</v>
       </c>
       <c r="C475" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D475" t="s">
         <v>1205</v>
@@ -11379,7 +11397,7 @@
         <v>475</v>
       </c>
       <c r="C476" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D476" t="s">
         <v>1206</v>
@@ -11393,7 +11411,7 @@
         <v>476</v>
       </c>
       <c r="C477" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D477" t="s">
         <v>799</v>
@@ -11407,7 +11425,7 @@
         <v>477</v>
       </c>
       <c r="C478" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D478" t="s">
         <v>1207</v>
@@ -11421,7 +11439,7 @@
         <v>478</v>
       </c>
       <c r="C479" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D479" t="s">
         <v>1208</v>
@@ -11435,7 +11453,7 @@
         <v>479</v>
       </c>
       <c r="C480" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D480" t="s">
         <v>1209</v>
@@ -11449,7 +11467,7 @@
         <v>480</v>
       </c>
       <c r="C481" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D481" t="s">
         <v>1210</v>
@@ -11463,7 +11481,7 @@
         <v>481</v>
       </c>
       <c r="C482" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D482" t="s">
         <v>1211</v>
@@ -11477,7 +11495,7 @@
         <v>482</v>
       </c>
       <c r="C483" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D483" t="s">
         <v>1212</v>
@@ -11491,7 +11509,7 @@
         <v>483</v>
       </c>
       <c r="C484" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D484" t="s">
         <v>1091</v>
@@ -11505,7 +11523,7 @@
         <v>484</v>
       </c>
       <c r="C485" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D485" t="s">
         <v>1213</v>
@@ -11519,7 +11537,7 @@
         <v>485</v>
       </c>
       <c r="C486" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D486" t="s">
         <v>1214</v>
@@ -11533,7 +11551,7 @@
         <v>486</v>
       </c>
       <c r="C487" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D487" t="s">
         <v>1215</v>
@@ -11547,7 +11565,7 @@
         <v>487</v>
       </c>
       <c r="C488" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D488" t="s">
         <v>1216</v>
@@ -11561,7 +11579,7 @@
         <v>488</v>
       </c>
       <c r="C489" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D489" t="s">
         <v>1217</v>
@@ -11575,7 +11593,7 @@
         <v>99</v>
       </c>
       <c r="C490" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D490" t="s">
         <v>1218</v>
@@ -11589,7 +11607,7 @@
         <v>489</v>
       </c>
       <c r="C491" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D491" t="s">
         <v>1219</v>
@@ -11603,7 +11621,7 @@
         <v>490</v>
       </c>
       <c r="C492" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D492" t="s">
         <v>1220</v>
@@ -11617,7 +11635,7 @@
         <v>491</v>
       </c>
       <c r="C493" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D493" t="s">
         <v>1221</v>
@@ -11631,7 +11649,7 @@
         <v>492</v>
       </c>
       <c r="C494" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D494" t="s">
         <v>1222</v>
@@ -11645,7 +11663,7 @@
         <v>493</v>
       </c>
       <c r="C495" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D495" t="s">
         <v>941</v>
@@ -11659,7 +11677,7 @@
         <v>494</v>
       </c>
       <c r="C496" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D496" t="s">
         <v>1223</v>
@@ -11673,7 +11691,7 @@
         <v>495</v>
       </c>
       <c r="C497" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D497" t="s">
         <v>1224</v>
@@ -11687,7 +11705,7 @@
         <v>496</v>
       </c>
       <c r="C498" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D498" t="s">
         <v>1225</v>
@@ -11701,7 +11719,7 @@
         <v>497</v>
       </c>
       <c r="C499" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D499" t="s">
         <v>1226</v>
@@ -11715,7 +11733,7 @@
         <v>498</v>
       </c>
       <c r="C500" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D500" t="s">
         <v>1227</v>
@@ -11729,7 +11747,7 @@
         <v>499</v>
       </c>
       <c r="C501" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D501" t="s">
         <v>1228</v>
@@ -11743,7 +11761,7 @@
         <v>500</v>
       </c>
       <c r="C502" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D502" t="s">
         <v>1033</v>
@@ -11757,7 +11775,7 @@
         <v>501</v>
       </c>
       <c r="C503" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D503" t="s">
         <v>1229</v>
@@ -11771,7 +11789,7 @@
         <v>502</v>
       </c>
       <c r="C504" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D504" t="s">
         <v>1230</v>
@@ -11785,7 +11803,7 @@
         <v>503</v>
       </c>
       <c r="C505" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D505" t="s">
         <v>1231</v>
@@ -11799,7 +11817,7 @@
         <v>504</v>
       </c>
       <c r="C506" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D506" t="s">
         <v>1232</v>
@@ -11813,7 +11831,7 @@
         <v>505</v>
       </c>
       <c r="C507" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D507" t="s">
         <v>1233</v>
@@ -11827,7 +11845,7 @@
         <v>506</v>
       </c>
       <c r="C508" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D508" t="s">
         <v>1234</v>
@@ -11841,7 +11859,7 @@
         <v>507</v>
       </c>
       <c r="C509" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D509" t="s">
         <v>1235</v>
@@ -11855,7 +11873,7 @@
         <v>508</v>
       </c>
       <c r="C510" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D510" t="s">
         <v>1236</v>
@@ -11869,7 +11887,7 @@
         <v>509</v>
       </c>
       <c r="C511" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D511" t="s">
         <v>1237</v>
@@ -11883,7 +11901,7 @@
         <v>510</v>
       </c>
       <c r="C512" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D512" t="s">
         <v>1238</v>
@@ -11897,7 +11915,7 @@
         <v>511</v>
       </c>
       <c r="C513" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D513" t="s">
         <v>1239</v>
@@ -11911,7 +11929,7 @@
         <v>512</v>
       </c>
       <c r="C514" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D514" t="s">
         <v>1240</v>
@@ -11925,7 +11943,7 @@
         <v>513</v>
       </c>
       <c r="C515" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D515" t="s">
         <v>1241</v>
@@ -11939,7 +11957,7 @@
         <v>514</v>
       </c>
       <c r="C516" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D516" t="s">
         <v>1242</v>
@@ -11953,7 +11971,7 @@
         <v>515</v>
       </c>
       <c r="C517" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D517" t="s">
         <v>1243</v>
@@ -11967,7 +11985,7 @@
         <v>516</v>
       </c>
       <c r="C518" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D518" t="s">
         <v>1244</v>
@@ -11981,7 +11999,7 @@
         <v>517</v>
       </c>
       <c r="C519" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D519" t="s">
         <v>1245</v>
@@ -11995,7 +12013,7 @@
         <v>518</v>
       </c>
       <c r="C520" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D520" t="s">
         <v>1246</v>
@@ -12009,7 +12027,7 @@
         <v>519</v>
       </c>
       <c r="C521" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D521" t="s">
         <v>1247</v>
@@ -12023,7 +12041,7 @@
         <v>520</v>
       </c>
       <c r="C522" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D522" t="s">
         <v>1248</v>
@@ -12037,7 +12055,7 @@
         <v>521</v>
       </c>
       <c r="C523" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D523" t="s">
         <v>1249</v>
@@ -12051,7 +12069,7 @@
         <v>522</v>
       </c>
       <c r="C524" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D524" t="s">
         <v>1250</v>
@@ -12065,7 +12083,7 @@
         <v>523</v>
       </c>
       <c r="C525" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D525" t="s">
         <v>1251</v>
@@ -12079,7 +12097,7 @@
         <v>524</v>
       </c>
       <c r="C526" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D526" t="s">
         <v>1252</v>
@@ -12093,7 +12111,7 @@
         <v>525</v>
       </c>
       <c r="C527" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D527" t="s">
         <v>1113</v>
@@ -12107,7 +12125,7 @@
         <v>526</v>
       </c>
       <c r="C528" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D528" t="s">
         <v>1253</v>
@@ -12121,7 +12139,7 @@
         <v>527</v>
       </c>
       <c r="C529" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D529" t="s">
         <v>1254</v>
@@ -12135,7 +12153,7 @@
         <v>528</v>
       </c>
       <c r="C530" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D530" t="s">
         <v>1255</v>
@@ -12149,7 +12167,7 @@
         <v>529</v>
       </c>
       <c r="C531" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D531" t="s">
         <v>1256</v>
@@ -12163,7 +12181,7 @@
         <v>530</v>
       </c>
       <c r="C532" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D532" t="s">
         <v>1257</v>
@@ -12177,7 +12195,7 @@
         <v>531</v>
       </c>
       <c r="C533" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D533" t="s">
         <v>1258</v>
@@ -12191,7 +12209,7 @@
         <v>532</v>
       </c>
       <c r="C534" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D534" t="s">
         <v>1258</v>
@@ -12205,7 +12223,7 @@
         <v>533</v>
       </c>
       <c r="C535" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D535" t="s">
         <v>1259</v>
@@ -12219,7 +12237,7 @@
         <v>534</v>
       </c>
       <c r="C536" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D536" t="s">
         <v>1260</v>
@@ -12233,7 +12251,7 @@
         <v>535</v>
       </c>
       <c r="C537" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D537" t="s">
         <v>1091</v>
@@ -12247,7 +12265,7 @@
         <v>536</v>
       </c>
       <c r="C538" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D538" t="s">
         <v>1261</v>
@@ -12261,7 +12279,7 @@
         <v>537</v>
       </c>
       <c r="C539" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D539" t="s">
         <v>1262</v>
@@ -12275,7 +12293,7 @@
         <v>538</v>
       </c>
       <c r="C540" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D540" t="s">
         <v>1197</v>
@@ -12289,7 +12307,7 @@
         <v>539</v>
       </c>
       <c r="C541" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D541" t="s">
         <v>997</v>
@@ -12303,7 +12321,7 @@
         <v>540</v>
       </c>
       <c r="C542" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D542" t="s">
         <v>1263</v>
@@ -12317,7 +12335,7 @@
         <v>541</v>
       </c>
       <c r="C543" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D543" t="s">
         <v>1264</v>
@@ -12331,7 +12349,7 @@
         <v>542</v>
       </c>
       <c r="C544" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D544" t="s">
         <v>1265</v>
@@ -12345,7 +12363,7 @@
         <v>543</v>
       </c>
       <c r="C545" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D545" t="s">
         <v>1266</v>
@@ -12359,7 +12377,7 @@
         <v>544</v>
       </c>
       <c r="C546" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D546" t="s">
         <v>1267</v>
@@ -12373,7 +12391,7 @@
         <v>545</v>
       </c>
       <c r="C547" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D547" t="s">
         <v>1268</v>
@@ -12387,7 +12405,7 @@
         <v>546</v>
       </c>
       <c r="C548" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D548" t="s">
         <v>1269</v>
@@ -12401,7 +12419,7 @@
         <v>547</v>
       </c>
       <c r="C549" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D549" t="s">
         <v>1270</v>
@@ -12415,7 +12433,7 @@
         <v>548</v>
       </c>
       <c r="C550" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D550" t="s">
         <v>1271</v>
@@ -12429,7 +12447,7 @@
         <v>549</v>
       </c>
       <c r="C551" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D551" t="s">
         <v>1272</v>
@@ -12443,7 +12461,7 @@
         <v>140</v>
       </c>
       <c r="C552" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D552" t="s">
         <v>1273</v>
@@ -12457,7 +12475,7 @@
         <v>550</v>
       </c>
       <c r="C553" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D553" t="s">
         <v>1274</v>
@@ -12471,7 +12489,7 @@
         <v>551</v>
       </c>
       <c r="C554" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D554" t="s">
         <v>1275</v>
@@ -12485,7 +12503,7 @@
         <v>552</v>
       </c>
       <c r="C555" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D555" t="s">
         <v>1276</v>
@@ -12499,7 +12517,7 @@
         <v>553</v>
       </c>
       <c r="C556" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D556" t="s">
         <v>1277</v>
@@ -12513,7 +12531,7 @@
         <v>554</v>
       </c>
       <c r="C557" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D557" t="s">
         <v>1278</v>
@@ -12527,7 +12545,7 @@
         <v>555</v>
       </c>
       <c r="C558" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D558" t="s">
         <v>1279</v>
@@ -12541,7 +12559,7 @@
         <v>243</v>
       </c>
       <c r="C559" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D559" t="s">
         <v>1280</v>
@@ -12555,7 +12573,7 @@
         <v>556</v>
       </c>
       <c r="C560" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D560" t="s">
         <v>1281</v>
@@ -12569,7 +12587,7 @@
         <v>557</v>
       </c>
       <c r="C561" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D561" t="s">
         <v>1282</v>
@@ -12583,7 +12601,7 @@
         <v>558</v>
       </c>
       <c r="C562" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D562" t="s">
         <v>1280</v>
@@ -12597,7 +12615,7 @@
         <v>559</v>
       </c>
       <c r="C563" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D563" t="s">
         <v>1283</v>
@@ -12611,7 +12629,7 @@
         <v>560</v>
       </c>
       <c r="C564" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D564" t="s">
         <v>1284</v>
@@ -12625,7 +12643,7 @@
         <v>561</v>
       </c>
       <c r="C565" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D565" t="s">
         <v>1285</v>
@@ -12639,7 +12657,7 @@
         <v>562</v>
       </c>
       <c r="C566" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D566" t="s">
         <v>1267</v>
@@ -12653,7 +12671,7 @@
         <v>563</v>
       </c>
       <c r="C567" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D567" t="s">
         <v>1286</v>
@@ -12667,7 +12685,7 @@
         <v>564</v>
       </c>
       <c r="C568" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D568" t="s">
         <v>851</v>
@@ -12681,7 +12699,7 @@
         <v>565</v>
       </c>
       <c r="C569" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D569" t="s">
         <v>1287</v>
@@ -12695,7 +12713,7 @@
         <v>566</v>
       </c>
       <c r="C570" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D570" t="s">
         <v>941</v>
@@ -12709,7 +12727,7 @@
         <v>567</v>
       </c>
       <c r="C571" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D571" t="s">
         <v>1288</v>
@@ -12723,7 +12741,7 @@
         <v>568</v>
       </c>
       <c r="C572" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D572" t="s">
         <v>1289</v>
@@ -12737,7 +12755,7 @@
         <v>569</v>
       </c>
       <c r="C573" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D573" t="s">
         <v>1290</v>
@@ -12751,7 +12769,7 @@
         <v>570</v>
       </c>
       <c r="C574" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D574" t="s">
         <v>1291</v>
@@ -12765,7 +12783,7 @@
         <v>571</v>
       </c>
       <c r="C575" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D575" t="s">
         <v>1292</v>
@@ -12779,7 +12797,7 @@
         <v>572</v>
       </c>
       <c r="C576" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D576" t="s">
         <v>1293</v>
@@ -12793,7 +12811,7 @@
         <v>573</v>
       </c>
       <c r="C577" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D577" t="s">
         <v>1294</v>
@@ -12807,7 +12825,7 @@
         <v>574</v>
       </c>
       <c r="C578" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D578" t="s">
         <v>1295</v>
@@ -12821,7 +12839,7 @@
         <v>575</v>
       </c>
       <c r="C579" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D579" t="s">
         <v>1296</v>
@@ -12835,7 +12853,7 @@
         <v>576</v>
       </c>
       <c r="C580" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D580" t="s">
         <v>1297</v>
@@ -12849,7 +12867,7 @@
         <v>577</v>
       </c>
       <c r="C581" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D581" t="s">
         <v>1265</v>
@@ -12863,7 +12881,7 @@
         <v>578</v>
       </c>
       <c r="C582" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D582" t="s">
         <v>1298</v>
@@ -12877,7 +12895,7 @@
         <v>579</v>
       </c>
       <c r="C583" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D583" t="s">
         <v>1299</v>
@@ -12891,7 +12909,7 @@
         <v>580</v>
       </c>
       <c r="C584" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D584" t="s">
         <v>1300</v>
@@ -12905,7 +12923,7 @@
         <v>581</v>
       </c>
       <c r="C585" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D585" t="s">
         <v>1301</v>
@@ -12919,7 +12937,7 @@
         <v>582</v>
       </c>
       <c r="C586" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D586" t="s">
         <v>1302</v>
@@ -12933,7 +12951,7 @@
         <v>583</v>
       </c>
       <c r="C587" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D587" t="s">
         <v>1303</v>
@@ -12947,7 +12965,7 @@
         <v>584</v>
       </c>
       <c r="C588" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D588" t="s">
         <v>1304</v>
@@ -12961,7 +12979,7 @@
         <v>585</v>
       </c>
       <c r="C589" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D589" t="s">
         <v>1305</v>
@@ -12975,7 +12993,7 @@
         <v>586</v>
       </c>
       <c r="C590" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D590" t="s">
         <v>888</v>
@@ -12989,7 +13007,7 @@
         <v>587</v>
       </c>
       <c r="C591" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D591" t="s">
         <v>1306</v>
@@ -13003,7 +13021,7 @@
         <v>588</v>
       </c>
       <c r="C592" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D592" t="s">
         <v>1307</v>
@@ -13017,7 +13035,7 @@
         <v>589</v>
       </c>
       <c r="C593" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D593" t="s">
         <v>1308</v>
@@ -13031,7 +13049,7 @@
         <v>590</v>
       </c>
       <c r="C594" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D594" t="s">
         <v>1309</v>
@@ -13045,10 +13063,10 @@
         <v>591</v>
       </c>
       <c r="C595" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D595" t="s">
-        <v>1310</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -13059,10 +13077,10 @@
         <v>592</v>
       </c>
       <c r="C596" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D596" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -13073,10 +13091,10 @@
         <v>593</v>
       </c>
       <c r="C597" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D597" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -13087,10 +13105,10 @@
         <v>594</v>
       </c>
       <c r="C598" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D598" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -13101,10 +13119,10 @@
         <v>595</v>
       </c>
       <c r="C599" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D599" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -13115,10 +13133,10 @@
         <v>596</v>
       </c>
       <c r="C600" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D600" t="s">
-        <v>1315</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -13129,10 +13147,10 @@
         <v>597</v>
       </c>
       <c r="C601" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D601" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -13143,10 +13161,10 @@
         <v>598</v>
       </c>
       <c r="C602" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D602" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -13157,7 +13175,7 @@
         <v>599</v>
       </c>
       <c r="C603" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D603" t="s">
         <v>1191</v>
@@ -13171,10 +13189,10 @@
         <v>600</v>
       </c>
       <c r="C604" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D604" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -13185,10 +13203,10 @@
         <v>601</v>
       </c>
       <c r="C605" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D605" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -13199,10 +13217,10 @@
         <v>602</v>
       </c>
       <c r="C606" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D606" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -13213,10 +13231,10 @@
         <v>299</v>
       </c>
       <c r="C607" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D607" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -13227,10 +13245,10 @@
         <v>603</v>
       </c>
       <c r="C608" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D608" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -13241,10 +13259,10 @@
         <v>604</v>
       </c>
       <c r="C609" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D609" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -13255,10 +13273,10 @@
         <v>605</v>
       </c>
       <c r="C610" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D610" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -13269,10 +13287,10 @@
         <v>606</v>
       </c>
       <c r="C611" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D611" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -13283,10 +13301,10 @@
         <v>607</v>
       </c>
       <c r="C612" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D612" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -13297,10 +13315,10 @@
         <v>608</v>
       </c>
       <c r="C613" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D613" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -13311,10 +13329,10 @@
         <v>609</v>
       </c>
       <c r="C614" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D614" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -13325,7 +13343,7 @@
         <v>610</v>
       </c>
       <c r="C615" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D615" t="s">
         <v>881</v>
@@ -13339,10 +13357,10 @@
         <v>611</v>
       </c>
       <c r="C616" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D616" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -13353,10 +13371,10 @@
         <v>612</v>
       </c>
       <c r="C617" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D617" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -13367,10 +13385,10 @@
         <v>613</v>
       </c>
       <c r="C618" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D618" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -13381,10 +13399,10 @@
         <v>614</v>
       </c>
       <c r="C619" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D619" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -13395,10 +13413,10 @@
         <v>615</v>
       </c>
       <c r="C620" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D620" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -13409,10 +13427,10 @@
         <v>616</v>
       </c>
       <c r="C621" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D621" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -13423,7 +13441,7 @@
         <v>617</v>
       </c>
       <c r="C622" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D622" t="s">
         <v>1248</v>
@@ -13437,10 +13455,10 @@
         <v>618</v>
       </c>
       <c r="C623" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D623" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -13451,10 +13469,10 @@
         <v>619</v>
       </c>
       <c r="C624" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D624" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -13465,10 +13483,10 @@
         <v>620</v>
       </c>
       <c r="C625" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D625" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -13479,10 +13497,10 @@
         <v>621</v>
       </c>
       <c r="C626" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D626" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -13493,10 +13511,10 @@
         <v>622</v>
       </c>
       <c r="C627" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D627" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -13507,10 +13525,10 @@
         <v>623</v>
       </c>
       <c r="C628" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D628" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -13521,10 +13539,10 @@
         <v>624</v>
       </c>
       <c r="C629" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D629" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -13535,10 +13553,10 @@
         <v>625</v>
       </c>
       <c r="C630" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D630" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -13549,10 +13567,10 @@
         <v>626</v>
       </c>
       <c r="C631" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D631" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -13563,10 +13581,10 @@
         <v>54</v>
       </c>
       <c r="C632" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D632" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -13577,10 +13595,10 @@
         <v>627</v>
       </c>
       <c r="C633" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D633" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -13591,10 +13609,10 @@
         <v>628</v>
       </c>
       <c r="C634" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D634" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -13605,10 +13623,10 @@
         <v>629</v>
       </c>
       <c r="C635" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D635" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -13619,10 +13637,10 @@
         <v>630</v>
       </c>
       <c r="C636" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D636" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -13633,10 +13651,10 @@
         <v>631</v>
       </c>
       <c r="C637" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D637" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -13647,10 +13665,10 @@
         <v>632</v>
       </c>
       <c r="C638" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D638" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -13661,10 +13679,10 @@
         <v>633</v>
       </c>
       <c r="C639" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D639" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -13675,10 +13693,10 @@
         <v>634</v>
       </c>
       <c r="C640" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D640" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -13689,10 +13707,10 @@
         <v>635</v>
       </c>
       <c r="C641" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D641" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -13703,10 +13721,10 @@
         <v>636</v>
       </c>
       <c r="C642" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D642" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -13717,10 +13735,10 @@
         <v>637</v>
       </c>
       <c r="C643" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D643" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -13731,10 +13749,10 @@
         <v>638</v>
       </c>
       <c r="C644" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D644" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -13745,10 +13763,10 @@
         <v>639</v>
       </c>
       <c r="C645" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D645" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -13759,10 +13777,10 @@
         <v>640</v>
       </c>
       <c r="C646" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D646" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -13773,10 +13791,10 @@
         <v>641</v>
       </c>
       <c r="C647" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D647" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -13787,10 +13805,10 @@
         <v>642</v>
       </c>
       <c r="C648" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D648" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -13801,10 +13819,10 @@
         <v>643</v>
       </c>
       <c r="C649" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D649" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -13815,10 +13833,10 @@
         <v>644</v>
       </c>
       <c r="C650" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D650" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -13829,10 +13847,10 @@
         <v>645</v>
       </c>
       <c r="C651" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D651" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -13843,10 +13861,10 @@
         <v>646</v>
       </c>
       <c r="C652" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D652" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -13857,10 +13875,10 @@
         <v>647</v>
       </c>
       <c r="C653" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D653" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -13871,10 +13889,10 @@
         <v>648</v>
       </c>
       <c r="C654" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D654" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -13885,10 +13903,10 @@
         <v>649</v>
       </c>
       <c r="C655" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D655" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -13899,10 +13917,10 @@
         <v>650</v>
       </c>
       <c r="C656" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D656" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -13913,10 +13931,10 @@
         <v>651</v>
       </c>
       <c r="C657" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D657" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -13927,10 +13945,10 @@
         <v>652</v>
       </c>
       <c r="C658" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D658" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -13941,10 +13959,10 @@
         <v>653</v>
       </c>
       <c r="C659" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D659" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -13955,10 +13973,10 @@
         <v>654</v>
       </c>
       <c r="C660" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D660" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -13969,10 +13987,10 @@
         <v>655</v>
       </c>
       <c r="C661" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D661" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -13983,10 +14001,10 @@
         <v>656</v>
       </c>
       <c r="C662" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D662" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -13997,7 +14015,7 @@
         <v>657</v>
       </c>
       <c r="C663" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D663" t="s">
         <v>852</v>
@@ -14011,10 +14029,10 @@
         <v>658</v>
       </c>
       <c r="C664" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D664" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -14025,10 +14043,10 @@
         <v>659</v>
       </c>
       <c r="C665" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D665" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -14039,10 +14057,10 @@
         <v>660</v>
       </c>
       <c r="C666" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D666" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -14053,10 +14071,10 @@
         <v>661</v>
       </c>
       <c r="C667" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D667" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -14067,10 +14085,10 @@
         <v>662</v>
       </c>
       <c r="C668" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D668" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -14081,10 +14099,10 @@
         <v>663</v>
       </c>
       <c r="C669" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D669" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -14095,10 +14113,10 @@
         <v>664</v>
       </c>
       <c r="C670" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D670" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -14109,10 +14127,10 @@
         <v>665</v>
       </c>
       <c r="C671" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D671" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -14123,10 +14141,10 @@
         <v>666</v>
       </c>
       <c r="C672" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D672" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -14137,10 +14155,10 @@
         <v>667</v>
       </c>
       <c r="C673" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D673" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -14151,10 +14169,10 @@
         <v>668</v>
       </c>
       <c r="C674" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D674" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -14165,10 +14183,10 @@
         <v>669</v>
       </c>
       <c r="C675" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D675" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -14179,10 +14197,10 @@
         <v>670</v>
       </c>
       <c r="C676" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D676" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -14193,10 +14211,10 @@
         <v>671</v>
       </c>
       <c r="C677" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D677" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -14207,10 +14225,10 @@
         <v>672</v>
       </c>
       <c r="C678" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D678" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -14221,10 +14239,10 @@
         <v>673</v>
       </c>
       <c r="C679" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D679" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -14235,10 +14253,10 @@
         <v>674</v>
       </c>
       <c r="C680" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D680" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -14249,10 +14267,10 @@
         <v>675</v>
       </c>
       <c r="C681" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D681" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -14263,10 +14281,10 @@
         <v>676</v>
       </c>
       <c r="C682" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D682" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -14280,7 +14298,7 @@
         <v>748</v>
       </c>
       <c r="D683" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -14291,10 +14309,10 @@
         <v>678</v>
       </c>
       <c r="C684" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D684" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -14305,10 +14323,10 @@
         <v>679</v>
       </c>
       <c r="C685" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D685" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -14319,10 +14337,10 @@
         <v>680</v>
       </c>
       <c r="C686" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D686" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -14333,10 +14351,10 @@
         <v>681</v>
       </c>
       <c r="C687" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D687" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -14347,10 +14365,10 @@
         <v>682</v>
       </c>
       <c r="C688" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D688" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -14361,10 +14379,10 @@
         <v>683</v>
       </c>
       <c r="C689" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D689" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -14375,10 +14393,10 @@
         <v>684</v>
       </c>
       <c r="C690" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D690" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -14389,7 +14407,7 @@
         <v>418</v>
       </c>
       <c r="C691" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D691" t="s">
         <v>1153</v>
@@ -14403,10 +14421,10 @@
         <v>685</v>
       </c>
       <c r="C692" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D692" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -14417,10 +14435,10 @@
         <v>686</v>
       </c>
       <c r="C693" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D693" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -14431,10 +14449,10 @@
         <v>687</v>
       </c>
       <c r="C694" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D694" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -14445,10 +14463,10 @@
         <v>688</v>
       </c>
       <c r="C695" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D695" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -14459,10 +14477,10 @@
         <v>689</v>
       </c>
       <c r="C696" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D696" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -14473,10 +14491,10 @@
         <v>690</v>
       </c>
       <c r="C697" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D697" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -14487,10 +14505,10 @@
         <v>691</v>
       </c>
       <c r="C698" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D698" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -14501,10 +14519,10 @@
         <v>692</v>
       </c>
       <c r="C699" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D699" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -14515,10 +14533,10 @@
         <v>693</v>
       </c>
       <c r="C700" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D700" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -14529,10 +14547,10 @@
         <v>694</v>
       </c>
       <c r="C701" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D701" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -14543,10 +14561,10 @@
         <v>695</v>
       </c>
       <c r="C702" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D702" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -14557,10 +14575,10 @@
         <v>696</v>
       </c>
       <c r="C703" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D703" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -14571,10 +14589,10 @@
         <v>697</v>
       </c>
       <c r="C704" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D704" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -14585,10 +14603,10 @@
         <v>698</v>
       </c>
       <c r="C705" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D705" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -14599,10 +14617,10 @@
         <v>699</v>
       </c>
       <c r="C706" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D706" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -14613,10 +14631,10 @@
         <v>700</v>
       </c>
       <c r="C707" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D707" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -14627,10 +14645,10 @@
         <v>701</v>
       </c>
       <c r="C708" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D708" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -14641,10 +14659,10 @@
         <v>702</v>
       </c>
       <c r="C709" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D709" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -14655,10 +14673,10 @@
         <v>703</v>
       </c>
       <c r="C710" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D710" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -14672,7 +14690,7 @@
         <v>749</v>
       </c>
       <c r="D711" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -14683,10 +14701,10 @@
         <v>705</v>
       </c>
       <c r="C712" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D712" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -14697,10 +14715,10 @@
         <v>706</v>
       </c>
       <c r="C713" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D713" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -14711,10 +14729,10 @@
         <v>707</v>
       </c>
       <c r="C714" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D714" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -14725,10 +14743,10 @@
         <v>708</v>
       </c>
       <c r="C715" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D715" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -14739,10 +14757,10 @@
         <v>709</v>
       </c>
       <c r="C716" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D716" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -14753,10 +14771,10 @@
         <v>710</v>
       </c>
       <c r="C717" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D717" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -14767,10 +14785,10 @@
         <v>711</v>
       </c>
       <c r="C718" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D718" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -14781,10 +14799,10 @@
         <v>712</v>
       </c>
       <c r="C719" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D719" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -14795,10 +14813,10 @@
         <v>713</v>
       </c>
       <c r="C720" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D720" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -14809,10 +14827,10 @@
         <v>714</v>
       </c>
       <c r="C721" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D721" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -14823,10 +14841,10 @@
         <v>715</v>
       </c>
       <c r="C722" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D722" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -14837,7 +14855,7 @@
         <v>476</v>
       </c>
       <c r="C723" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D723" t="s">
         <v>799</v>
@@ -14851,10 +14869,10 @@
         <v>716</v>
       </c>
       <c r="C724" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D724" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -14865,10 +14883,10 @@
         <v>717</v>
       </c>
       <c r="C725" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D725" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -14879,10 +14897,10 @@
         <v>718</v>
       </c>
       <c r="C726" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D726" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -14893,10 +14911,10 @@
         <v>719</v>
       </c>
       <c r="C727" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D727" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -14907,10 +14925,10 @@
         <v>720</v>
       </c>
       <c r="C728" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D728" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -14921,10 +14939,10 @@
         <v>721</v>
       </c>
       <c r="C729" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D729" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -14935,10 +14953,10 @@
         <v>722</v>
       </c>
       <c r="C730" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D730" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -14949,10 +14967,10 @@
         <v>723</v>
       </c>
       <c r="C731" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D731" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -14963,10 +14981,10 @@
         <v>724</v>
       </c>
       <c r="C732" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D732" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -14977,10 +14995,10 @@
         <v>725</v>
       </c>
       <c r="C733" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D733" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -14991,10 +15009,10 @@
         <v>726</v>
       </c>
       <c r="C734" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D734" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -15005,10 +15023,10 @@
         <v>727</v>
       </c>
       <c r="C735" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D735" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -15019,10 +15037,10 @@
         <v>728</v>
       </c>
       <c r="C736" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D736" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -15033,10 +15051,10 @@
         <v>729</v>
       </c>
       <c r="C737" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D737" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -15047,10 +15065,10 @@
         <v>730</v>
       </c>
       <c r="C738" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D738" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -15061,13 +15079,35 @@
         <v>731</v>
       </c>
       <c r="C739" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D739" t="s">
-        <v>1448</v>
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="1">
+        <v>738</v>
+      </c>
+      <c r="B740" t="s">
+        <v>732</v>
+      </c>
+      <c r="C740" t="s">
+        <v>741</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:C500">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="+">
+      <formula>NOT(ISERROR(SEARCH("+",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="+">
+      <formula>NOT(ISERROR(SEARCH("+",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kill_GRE.xlsx
+++ b/Kill_GRE.xlsx
@@ -1885,7 +1885,7 @@
     <t>import</t>
   </si>
   <si>
-    <t>stupefaction</t>
+    <t>stupefaction+</t>
   </si>
   <si>
     <t>certitude</t>
@@ -2683,7 +2683,7 @@
     <t>hysteria</t>
   </si>
   <si>
-    <t>villify</t>
+    <t>vilify</t>
   </si>
   <si>
     <t>adj.</t>

--- a/Kill_GRE.xlsx
+++ b/Kill_GRE.xlsx
@@ -1375,7 +1375,7 @@
     <t>forsake</t>
   </si>
   <si>
-    <t>frugal++</t>
+    <t>frugal+++</t>
   </si>
   <si>
     <t>fungible</t>
@@ -7113,7 +7113,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF78021A"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFA3C54"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF78021A"/>
@@ -7434,7 +7444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1207"/>
+  <dimension ref="A1:D1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24318,20 +24328,18 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="1207" spans="1:4">
-      <c r="A1207" s="1">
-        <v>1205</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C20000">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="+++">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="++++">
+      <formula>NOT(ISERROR(SEARCH("++++",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="+++">
       <formula>NOT(ISERROR(SEARCH("+++",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="++">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="++">
       <formula>NOT(ISERROR(SEARCH("++",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="+">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="+">
       <formula>NOT(ISERROR(SEARCH("+",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Kill_GRE.xlsx
+++ b/Kill_GRE.xlsx
@@ -1195,7 +1195,7 @@
     <t>deaden</t>
   </si>
   <si>
-    <t>rehash+</t>
+    <t>rehash++</t>
   </si>
   <si>
     <t>untoward</t>
